--- a/people.xlsx
+++ b/people.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
@@ -1448,6 +1448,66 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Adamu</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>23</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ibrahim </t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>john</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>23</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
